--- a/OD600_PH_data_raw.xlsx
+++ b/OD600_PH_data_raw.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leeyunosuke/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leeyunosuke/Desktop/PreExperiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C03D57-86B0-D546-BCCF-3DEF61220CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8502FF-E88F-B243-A56E-EA57F65F6D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15800" xr2:uid="{6B4EB6AA-8428-2942-8737-0430C6E07DED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>前培養OD600</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>PH</t>
+  </si>
+  <si>
+    <t>2日目</t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B462FF-B6E5-0B4C-8A8F-F475105CFC97}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,31 +468,31 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.05</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <v>0.15</v>
+      </c>
+      <c r="F3">
+        <v>0.2</v>
+      </c>
+      <c r="G3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0.05</v>
-      </c>
-      <c r="D4">
-        <v>0.1</v>
-      </c>
-      <c r="E4">
-        <v>0.15</v>
-      </c>
-      <c r="F4">
-        <v>0.2</v>
-      </c>
-      <c r="G4">
-        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -592,6 +595,113 @@
       </c>
       <c r="G11">
         <v>6.5869999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>1.81</v>
+      </c>
+      <c r="C15">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="E15">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="F15">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="G15">
+        <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>1.74</v>
+      </c>
+      <c r="C16">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D16">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="E16">
+        <v>0.628</v>
+      </c>
+      <c r="F16">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="G16">
+        <v>0.68300000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>6.4420000000000002</v>
+      </c>
+      <c r="C19">
+        <v>6.44</v>
+      </c>
+      <c r="D19">
+        <v>6.4660000000000002</v>
+      </c>
+      <c r="E19">
+        <v>6.5190000000000001</v>
+      </c>
+      <c r="F19">
+        <v>6.5350000000000001</v>
+      </c>
+      <c r="G19">
+        <v>6.6509999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>6.09</v>
+      </c>
+      <c r="C20">
+        <v>6.641</v>
+      </c>
+      <c r="D20">
+        <v>6.47</v>
+      </c>
+      <c r="E20">
+        <v>6.57</v>
+      </c>
+      <c r="F20">
+        <v>6.5910000000000002</v>
+      </c>
+      <c r="G20">
+        <v>6.4219999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/OD600_PH_data_raw.xlsx
+++ b/OD600_PH_data_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leeyunosuke/Desktop/PreExperiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8502FF-E88F-B243-A56E-EA57F65F6D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62519919-5293-4E45-99D1-63691328D13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15800" xr2:uid="{6B4EB6AA-8428-2942-8737-0430C6E07DED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>前培養OD600</t>
   </si>
@@ -44,9 +44,6 @@
     <t>1日目</t>
   </si>
   <si>
-    <t>プロピオン酸濃度</t>
-  </si>
-  <si>
     <t>補糖あり</t>
   </si>
   <si>
@@ -60,6 +57,12 @@
   </si>
   <si>
     <t>2日目</t>
+  </si>
+  <si>
+    <t>最終目</t>
+  </si>
+  <si>
+    <t>プロピオン酸濃度 (M)</t>
   </si>
 </sst>
 </file>
@@ -448,15 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B462FF-B6E5-0B4C-8A8F-F475105CFC97}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -469,7 +472,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -497,12 +500,12 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>0.56299999999999994</v>
@@ -525,7 +528,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0.504</v>
@@ -548,12 +551,12 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>6.516</v>
@@ -576,7 +579,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>6.4569999999999999</v>
@@ -599,17 +602,17 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15">
         <v>1.81</v>
@@ -632,7 +635,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <v>1.74</v>
@@ -655,12 +658,12 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19">
         <v>6.4420000000000002</v>
@@ -683,7 +686,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>6.09</v>
@@ -702,6 +705,67 @@
       </c>
       <c r="G20">
         <v>6.4219999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>4.7539999999999996</v>
+      </c>
+      <c r="C28">
+        <v>5.3029999999999999</v>
+      </c>
+      <c r="D28">
+        <v>6.2160000000000002</v>
+      </c>
+      <c r="E28">
+        <v>6.532</v>
+      </c>
+      <c r="F28">
+        <v>6.5060000000000002</v>
+      </c>
+      <c r="G28">
+        <v>6.6379999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>4.6029999999999998</v>
+      </c>
+      <c r="C29">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D29">
+        <v>6.1429999999999998</v>
+      </c>
+      <c r="E29">
+        <v>6.44</v>
+      </c>
+      <c r="F29">
+        <v>6.524</v>
+      </c>
+      <c r="G29">
+        <v>6.88</v>
       </c>
     </row>
   </sheetData>

--- a/OD600_PH_data_raw.xlsx
+++ b/OD600_PH_data_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leeyunosuke/Desktop/PreExperiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62519919-5293-4E45-99D1-63691328D13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD11B97D-4A3B-F448-BA3F-48CDE77039ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15800" xr2:uid="{6B4EB6AA-8428-2942-8737-0430C6E07DED}"/>
   </bookViews>
@@ -454,12 +454,12 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">

--- a/OD600_PH_data_raw.xlsx
+++ b/OD600_PH_data_raw.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leeyunosuke/Desktop/PreExperiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD11B97D-4A3B-F448-BA3F-48CDE77039ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD42BFED-2E9E-274E-BAE9-AD9B21935A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15800" xr2:uid="{6B4EB6AA-8428-2942-8737-0430C6E07DED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
     <t>前培養OD600</t>
   </si>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B462FF-B6E5-0B4C-8A8F-F475105CFC97}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -717,6 +717,61 @@
         <v>4</v>
       </c>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <f>0.579*50</f>
+        <v>28.95</v>
+      </c>
+      <c r="C24">
+        <f>0.244*50</f>
+        <v>12.2</v>
+      </c>
+      <c r="D24">
+        <f>0.288*10</f>
+        <v>2.88</v>
+      </c>
+      <c r="E24">
+        <f>0.576*2</f>
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="F24">
+        <f>0.843</f>
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="G24">
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <f>0.684*50</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C25">
+        <f>0.309*50</f>
+        <v>15.45</v>
+      </c>
+      <c r="D25">
+        <f>0.322*10</f>
+        <v>3.22</v>
+      </c>
+      <c r="E25">
+        <f>0.576*2</f>
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="F25">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="G25">
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>

--- a/OD600_PH_data_raw.xlsx
+++ b/OD600_PH_data_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leeyunosuke/Desktop/PreExperiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD42BFED-2E9E-274E-BAE9-AD9B21935A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229CE1C9-7F4D-954B-917C-E5563B5F0761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15800" xr2:uid="{6B4EB6AA-8428-2942-8737-0430C6E07DED}"/>
   </bookViews>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B462FF-B6E5-0B4C-8A8F-F475105CFC97}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/OD600_PH_data_raw.xlsx
+++ b/OD600_PH_data_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leeyunosuke/Desktop/PreExperiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229CE1C9-7F4D-954B-917C-E5563B5F0761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4358B72-3D68-4649-B3A1-0FC5D8ABAEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15800" xr2:uid="{6B4EB6AA-8428-2942-8737-0430C6E07DED}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/OD600_PH_data_raw.xlsx
+++ b/OD600_PH_data_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leeyunosuke/Desktop/PreExperiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4358B72-3D68-4649-B3A1-0FC5D8ABAEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CD29FC-C3AF-A742-803F-40A84C90EEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15800" xr2:uid="{6B4EB6AA-8428-2942-8737-0430C6E07DED}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
